--- a/data-raw/sample summary_IGC-LZ-20205.xlsx
+++ b/data-raw/sample summary_IGC-LZ-20205.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/domeally/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B672D789-7464-E549-93FC-BF03861F5C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAEF990-5472-1C45-98A6-0CC92270ADCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24860" yWindow="500" windowWidth="25440" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -78,246 +78,243 @@
     <t>data folder</t>
   </si>
   <si>
+    <t>47544_1_4501w0</t>
+  </si>
+  <si>
+    <t>COHP_47544</t>
+  </si>
+  <si>
+    <t>K29265</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>Lianjun Zhang</t>
+  </si>
+  <si>
+    <t>Ya-Huei_Kuo</t>
+  </si>
+  <si>
+    <t>RiboErase-RAN-seq</t>
+  </si>
+  <si>
+    <t>Hanjun</t>
+  </si>
+  <si>
+    <t>KAPA RNA HyperPrep with RiboErase</t>
+  </si>
+  <si>
     <t>Tgen_NovaSeq S4 PE101</t>
   </si>
   <si>
-    <t>47544_1_4501w0</t>
+    <t>IGC-LZ-20205</t>
+  </si>
+  <si>
+    <t>\\isi-dcnl\user_data\ykuo\Seq\220415_IGC-LZ-20205</t>
   </si>
   <si>
     <t>47545_2_4501w2</t>
   </si>
   <si>
+    <t>COHP_47545</t>
+  </si>
+  <si>
+    <t>K29266</t>
+  </si>
+  <si>
     <t>47546_3_4501w3</t>
   </si>
   <si>
+    <t>COHP_47546</t>
+  </si>
+  <si>
+    <t>K29267</t>
+  </si>
+  <si>
     <t>47547_4_4501w4</t>
   </si>
   <si>
+    <t>COHP_47547</t>
+  </si>
+  <si>
+    <t>K29268</t>
+  </si>
+  <si>
     <t>47548_5_4501w5</t>
   </si>
   <si>
+    <t>COHP_47548</t>
+  </si>
+  <si>
+    <t>K29269</t>
+  </si>
+  <si>
     <t>47549_6_4501w6</t>
   </si>
   <si>
+    <t>COHP_47549</t>
+  </si>
+  <si>
+    <t>K29270</t>
+  </si>
+  <si>
     <t>47550_7_4501w7</t>
   </si>
   <si>
+    <t>COHP_47550</t>
+  </si>
+  <si>
+    <t>K29271</t>
+  </si>
+  <si>
     <t>47551_8_4501w8</t>
   </si>
   <si>
+    <t>COHP_47551</t>
+  </si>
+  <si>
+    <t>K29272</t>
+  </si>
+  <si>
     <t>47552_9_4501w9</t>
   </si>
   <si>
+    <t>COHP_47552</t>
+  </si>
+  <si>
+    <t>K29273</t>
+  </si>
+  <si>
     <t>47553_10_4501w10</t>
   </si>
   <si>
+    <t>COHP_47553</t>
+  </si>
+  <si>
+    <t>K29274</t>
+  </si>
+  <si>
     <t>47554_11_4501w11</t>
   </si>
   <si>
+    <t>COHP_47554</t>
+  </si>
+  <si>
+    <t>K29275</t>
+  </si>
+  <si>
     <t>47555_12_4501w12</t>
   </si>
   <si>
+    <t>COHP_47555</t>
+  </si>
+  <si>
+    <t>K29276</t>
+  </si>
+  <si>
     <t>47556_13_4501w13</t>
   </si>
   <si>
+    <t>COHP_47556</t>
+  </si>
+  <si>
+    <t>K29277</t>
+  </si>
+  <si>
     <t>47557_14_4506w0</t>
   </si>
   <si>
+    <t>COHP_47557</t>
+  </si>
+  <si>
+    <t>K29278</t>
+  </si>
+  <si>
     <t>47559_17_4506w3</t>
   </si>
   <si>
+    <t>COHP_47559</t>
+  </si>
+  <si>
+    <t>K29279</t>
+  </si>
+  <si>
     <t>47560_18_4506w4</t>
   </si>
   <si>
+    <t>COHP_47560</t>
+  </si>
+  <si>
+    <t>K29280</t>
+  </si>
+  <si>
     <t>47561_19_4506w5</t>
   </si>
   <si>
+    <t>COHP_47561</t>
+  </si>
+  <si>
+    <t>K29281</t>
+  </si>
+  <si>
     <t>47562_20_4506w6</t>
   </si>
   <si>
+    <t>COHP_47562</t>
+  </si>
+  <si>
+    <t>K29282</t>
+  </si>
+  <si>
     <t>47563_21_4506w7</t>
   </si>
   <si>
+    <t>COHP_47563</t>
+  </si>
+  <si>
+    <t>K29283</t>
+  </si>
+  <si>
     <t>47564_22_4506w8</t>
   </si>
   <si>
+    <t>COHP_47564</t>
+  </si>
+  <si>
+    <t>K29284</t>
+  </si>
+  <si>
     <t>47565_23_4506w9</t>
   </si>
   <si>
+    <t>COHP_47565</t>
+  </si>
+  <si>
+    <t>K29285</t>
+  </si>
+  <si>
     <t>47568_26_4506w2-2</t>
   </si>
   <si>
+    <t>COHP_47568</t>
+  </si>
+  <si>
+    <t>K29286</t>
+  </si>
+  <si>
     <t>47570_28_4506w10-2</t>
   </si>
   <si>
+    <t>COHP_47570</t>
+  </si>
+  <si>
+    <t>K29287</t>
+  </si>
+  <si>
     <t>47571_29_4506end-2</t>
   </si>
   <si>
-    <t>mouse</t>
-  </si>
-  <si>
-    <t>Lianjun Zhang</t>
-  </si>
-  <si>
-    <t>Ya-Huei_Kuo</t>
-  </si>
-  <si>
-    <t>RiboErase-RAN-seq</t>
-  </si>
-  <si>
-    <t>Hanjun</t>
-  </si>
-  <si>
-    <t>KAPA RNA HyperPrep with RiboErase</t>
-  </si>
-  <si>
-    <t>IGC-LZ-20205</t>
-  </si>
-  <si>
-    <t>47572_30_4534_T1</t>
-  </si>
-  <si>
-    <t>47573_31_4534_T2</t>
-  </si>
-  <si>
-    <t>COHP_47544</t>
-  </si>
-  <si>
-    <t>K29265</t>
-  </si>
-  <si>
-    <t>COHP_47545</t>
-  </si>
-  <si>
-    <t>K29266</t>
-  </si>
-  <si>
-    <t>COHP_47546</t>
-  </si>
-  <si>
-    <t>K29267</t>
-  </si>
-  <si>
-    <t>COHP_47547</t>
-  </si>
-  <si>
-    <t>K29268</t>
-  </si>
-  <si>
-    <t>COHP_47548</t>
-  </si>
-  <si>
-    <t>K29269</t>
-  </si>
-  <si>
-    <t>COHP_47549</t>
-  </si>
-  <si>
-    <t>K29270</t>
-  </si>
-  <si>
-    <t>COHP_47550</t>
-  </si>
-  <si>
-    <t>K29271</t>
-  </si>
-  <si>
-    <t>COHP_47551</t>
-  </si>
-  <si>
-    <t>K29272</t>
-  </si>
-  <si>
-    <t>COHP_47552</t>
-  </si>
-  <si>
-    <t>K29273</t>
-  </si>
-  <si>
-    <t>COHP_47553</t>
-  </si>
-  <si>
-    <t>K29274</t>
-  </si>
-  <si>
-    <t>COHP_47554</t>
-  </si>
-  <si>
-    <t>K29275</t>
-  </si>
-  <si>
-    <t>COHP_47555</t>
-  </si>
-  <si>
-    <t>K29276</t>
-  </si>
-  <si>
-    <t>COHP_47556</t>
-  </si>
-  <si>
-    <t>K29277</t>
-  </si>
-  <si>
-    <t>COHP_47557</t>
-  </si>
-  <si>
-    <t>K29278</t>
-  </si>
-  <si>
-    <t>COHP_47559</t>
-  </si>
-  <si>
-    <t>K29279</t>
-  </si>
-  <si>
-    <t>COHP_47560</t>
-  </si>
-  <si>
-    <t>K29280</t>
-  </si>
-  <si>
-    <t>COHP_47561</t>
-  </si>
-  <si>
-    <t>K29281</t>
-  </si>
-  <si>
-    <t>COHP_47562</t>
-  </si>
-  <si>
-    <t>K29282</t>
-  </si>
-  <si>
-    <t>COHP_47563</t>
-  </si>
-  <si>
-    <t>K29283</t>
-  </si>
-  <si>
-    <t>COHP_47564</t>
-  </si>
-  <si>
-    <t>K29284</t>
-  </si>
-  <si>
-    <t>COHP_47565</t>
-  </si>
-  <si>
-    <t>K29285</t>
-  </si>
-  <si>
-    <t>COHP_47568</t>
-  </si>
-  <si>
-    <t>K29286</t>
-  </si>
-  <si>
-    <t>COHP_47570</t>
-  </si>
-  <si>
-    <t>K29287</t>
-  </si>
-  <si>
     <t>COHP_47571</t>
   </si>
   <si>
@@ -336,349 +333,352 @@
     <t>K29290</t>
   </si>
   <si>
-    <t>47574_32_4534-T3</t>
-  </si>
-  <si>
-    <t>47575_33_4534-T4</t>
-  </si>
-  <si>
-    <t>47576_34_4534-T5</t>
-  </si>
-  <si>
-    <t>47577_35_4534-W0</t>
-  </si>
-  <si>
-    <t>47578_36_4534-W2</t>
-  </si>
-  <si>
-    <t>47579_37_4534-W3</t>
-  </si>
-  <si>
-    <t>47580_38_4534-W4</t>
-  </si>
-  <si>
-    <t>47581_39_4534-W5</t>
-  </si>
-  <si>
-    <t>47582_40_4534-W6</t>
-  </si>
-  <si>
-    <t>47583_41_4534-W7</t>
-  </si>
-  <si>
-    <t>47584_42_4501-BM</t>
-  </si>
-  <si>
-    <t>47585_43_4506-BM</t>
-  </si>
-  <si>
-    <t>47586_44_4510-BM</t>
-  </si>
-  <si>
-    <t>47587_45_4510-W0</t>
-  </si>
-  <si>
-    <t>47588_46_4510-W2</t>
-  </si>
-  <si>
-    <t>47589_47_4510-W3</t>
-  </si>
-  <si>
-    <t>47590_48_4510-W4</t>
-  </si>
-  <si>
-    <t>47591_49_4510-W5</t>
-  </si>
-  <si>
-    <t>47592_50_4510-W6</t>
-  </si>
-  <si>
-    <t>47593_51_4510-W7</t>
-  </si>
-  <si>
-    <t>47594_52_4510-W8</t>
-  </si>
-  <si>
-    <t>47595_53_4510-W9</t>
+    <t>COHP_47574</t>
+  </si>
+  <si>
+    <t>L45662</t>
+  </si>
+  <si>
+    <t>COHP_47575</t>
+  </si>
+  <si>
+    <t>L45663</t>
+  </si>
+  <si>
+    <t>COHP_47576</t>
+  </si>
+  <si>
+    <t>L45664</t>
+  </si>
+  <si>
+    <t>COHP_47577</t>
+  </si>
+  <si>
+    <t>L45665</t>
+  </si>
+  <si>
+    <t>COHP_47578</t>
+  </si>
+  <si>
+    <t>L45666</t>
+  </si>
+  <si>
+    <t>COHP_47579</t>
+  </si>
+  <si>
+    <t>L45667</t>
+  </si>
+  <si>
+    <t>COHP_47580</t>
+  </si>
+  <si>
+    <t>L45668</t>
+  </si>
+  <si>
+    <t>COHP_47581</t>
+  </si>
+  <si>
+    <t>L45669</t>
+  </si>
+  <si>
+    <t>COHP_47582</t>
+  </si>
+  <si>
+    <t>L45670</t>
+  </si>
+  <si>
+    <t>COHP_47583</t>
+  </si>
+  <si>
+    <t>L45671</t>
+  </si>
+  <si>
+    <t>COHP_47584</t>
+  </si>
+  <si>
+    <t>L45672</t>
+  </si>
+  <si>
+    <t>COHP_47585</t>
+  </si>
+  <si>
+    <t>L45673</t>
+  </si>
+  <si>
+    <t>COHP_47586</t>
+  </si>
+  <si>
+    <t>L45674</t>
+  </si>
+  <si>
+    <t>COHP_47587</t>
+  </si>
+  <si>
+    <t>L45675</t>
+  </si>
+  <si>
+    <t>COHP_47588</t>
+  </si>
+  <si>
+    <t>L45676</t>
+  </si>
+  <si>
+    <t>COHP_47589</t>
+  </si>
+  <si>
+    <t>L45677</t>
+  </si>
+  <si>
+    <t>COHP_47590</t>
+  </si>
+  <si>
+    <t>L45678</t>
+  </si>
+  <si>
+    <t>COHP_47591</t>
+  </si>
+  <si>
+    <t>L45679</t>
+  </si>
+  <si>
+    <t>COHP_47592</t>
+  </si>
+  <si>
+    <t>L45680</t>
+  </si>
+  <si>
+    <t>COHP_47593</t>
+  </si>
+  <si>
+    <t>L45681</t>
+  </si>
+  <si>
+    <t>COHP_47594</t>
+  </si>
+  <si>
+    <t>L45682</t>
+  </si>
+  <si>
+    <t>COHP_47595</t>
+  </si>
+  <si>
+    <t>L45683</t>
   </si>
   <si>
     <t>47596_56_4535-T1</t>
   </si>
   <si>
+    <t>COHP_47596</t>
+  </si>
+  <si>
+    <t>L45684</t>
+  </si>
+  <si>
     <t>47597_57_4535-T2</t>
   </si>
   <si>
+    <t>COHP_47597</t>
+  </si>
+  <si>
+    <t>L45685</t>
+  </si>
+  <si>
     <t>47598_58_4535-T3</t>
   </si>
   <si>
+    <t>COHP_47598</t>
+  </si>
+  <si>
+    <t>L45686</t>
+  </si>
+  <si>
     <t>47599_59_4535-T4</t>
   </si>
   <si>
+    <t>COHP_47599</t>
+  </si>
+  <si>
+    <t>L45687</t>
+  </si>
+  <si>
     <t>47600_60_4535-T5</t>
   </si>
   <si>
+    <t>COHP_47600</t>
+  </si>
+  <si>
+    <t>L45688</t>
+  </si>
+  <si>
     <t>47601_61_4535-W0</t>
   </si>
   <si>
+    <t>COHP_47601</t>
+  </si>
+  <si>
+    <t>L45689</t>
+  </si>
+  <si>
     <t>47602_62_4535-W2</t>
   </si>
   <si>
+    <t>COHP_47602</t>
+  </si>
+  <si>
+    <t>L45690</t>
+  </si>
+  <si>
     <t>47603_63_4535-W3</t>
   </si>
   <si>
+    <t>COHP_47603</t>
+  </si>
+  <si>
+    <t>L45691</t>
+  </si>
+  <si>
     <t>47604_64_4535-W4</t>
   </si>
   <si>
+    <t>COHP_47604</t>
+  </si>
+  <si>
+    <t>L45692</t>
+  </si>
+  <si>
     <t>47605_65_4535-W5</t>
   </si>
   <si>
+    <t>COHP_47605</t>
+  </si>
+  <si>
+    <t>L45693</t>
+  </si>
+  <si>
     <t>47606_66_4535-W6</t>
   </si>
   <si>
+    <t>COHP_47606</t>
+  </si>
+  <si>
+    <t>L45694</t>
+  </si>
+  <si>
     <t>47607_67_4535-W7</t>
   </si>
   <si>
+    <t>COHP_47607</t>
+  </si>
+  <si>
+    <t>L45695</t>
+  </si>
+  <si>
     <t>47608_68_4535-W8</t>
   </si>
   <si>
+    <t>COHP_47608</t>
+  </si>
+  <si>
+    <t>L45696</t>
+  </si>
+  <si>
     <t>47609_69_4534-W8</t>
   </si>
   <si>
+    <t>COHP_47609</t>
+  </si>
+  <si>
+    <t>L45697</t>
+  </si>
+  <si>
     <t>47610_70_4535-BM</t>
   </si>
   <si>
+    <t>COHP_47610</t>
+  </si>
+  <si>
+    <t>L45698</t>
+  </si>
+  <si>
     <t>47611_71_4534-BM</t>
   </si>
   <si>
-    <t>COHP_47574</t>
-  </si>
-  <si>
-    <t>L45662</t>
-  </si>
-  <si>
-    <t>COHP_47575</t>
-  </si>
-  <si>
-    <t>L45663</t>
-  </si>
-  <si>
-    <t>COHP_47576</t>
-  </si>
-  <si>
-    <t>L45664</t>
-  </si>
-  <si>
-    <t>COHP_47577</t>
-  </si>
-  <si>
-    <t>L45665</t>
-  </si>
-  <si>
-    <t>COHP_47578</t>
-  </si>
-  <si>
-    <t>L45666</t>
-  </si>
-  <si>
-    <t>COHP_47579</t>
-  </si>
-  <si>
-    <t>L45667</t>
-  </si>
-  <si>
-    <t>COHP_47580</t>
-  </si>
-  <si>
-    <t>L45668</t>
-  </si>
-  <si>
-    <t>COHP_47581</t>
-  </si>
-  <si>
-    <t>L45669</t>
-  </si>
-  <si>
-    <t>COHP_47582</t>
-  </si>
-  <si>
-    <t>L45670</t>
-  </si>
-  <si>
-    <t>COHP_47583</t>
-  </si>
-  <si>
-    <t>L45671</t>
-  </si>
-  <si>
-    <t>COHP_47584</t>
-  </si>
-  <si>
-    <t>L45672</t>
-  </si>
-  <si>
-    <t>COHP_47585</t>
-  </si>
-  <si>
-    <t>L45673</t>
-  </si>
-  <si>
-    <t>COHP_47586</t>
-  </si>
-  <si>
-    <t>L45674</t>
-  </si>
-  <si>
-    <t>COHP_47587</t>
-  </si>
-  <si>
-    <t>L45675</t>
-  </si>
-  <si>
-    <t>COHP_47588</t>
-  </si>
-  <si>
-    <t>L45676</t>
-  </si>
-  <si>
-    <t>COHP_47589</t>
-  </si>
-  <si>
-    <t>L45677</t>
-  </si>
-  <si>
-    <t>COHP_47590</t>
-  </si>
-  <si>
-    <t>L45678</t>
-  </si>
-  <si>
-    <t>COHP_47591</t>
-  </si>
-  <si>
-    <t>L45679</t>
-  </si>
-  <si>
-    <t>COHP_47592</t>
-  </si>
-  <si>
-    <t>L45680</t>
-  </si>
-  <si>
-    <t>COHP_47593</t>
-  </si>
-  <si>
-    <t>L45681</t>
-  </si>
-  <si>
-    <t>COHP_47594</t>
-  </si>
-  <si>
-    <t>L45682</t>
-  </si>
-  <si>
-    <t>COHP_47595</t>
-  </si>
-  <si>
-    <t>L45683</t>
-  </si>
-  <si>
-    <t>COHP_47596</t>
-  </si>
-  <si>
-    <t>L45684</t>
-  </si>
-  <si>
-    <t>COHP_47597</t>
-  </si>
-  <si>
-    <t>L45685</t>
-  </si>
-  <si>
-    <t>COHP_47598</t>
-  </si>
-  <si>
-    <t>L45686</t>
-  </si>
-  <si>
-    <t>COHP_47599</t>
-  </si>
-  <si>
-    <t>L45687</t>
-  </si>
-  <si>
-    <t>COHP_47600</t>
-  </si>
-  <si>
-    <t>L45688</t>
-  </si>
-  <si>
-    <t>COHP_47601</t>
-  </si>
-  <si>
-    <t>L45689</t>
-  </si>
-  <si>
-    <t>COHP_47602</t>
-  </si>
-  <si>
-    <t>L45690</t>
-  </si>
-  <si>
-    <t>COHP_47603</t>
-  </si>
-  <si>
-    <t>L45691</t>
-  </si>
-  <si>
-    <t>COHP_47604</t>
-  </si>
-  <si>
-    <t>L45692</t>
-  </si>
-  <si>
-    <t>COHP_47605</t>
-  </si>
-  <si>
-    <t>L45693</t>
-  </si>
-  <si>
-    <t>COHP_47606</t>
-  </si>
-  <si>
-    <t>L45694</t>
-  </si>
-  <si>
-    <t>COHP_47607</t>
-  </si>
-  <si>
-    <t>L45695</t>
-  </si>
-  <si>
-    <t>COHP_47608</t>
-  </si>
-  <si>
-    <t>L45696</t>
-  </si>
-  <si>
-    <t>COHP_47609</t>
-  </si>
-  <si>
-    <t>L45697</t>
-  </si>
-  <si>
-    <t>COHP_47610</t>
-  </si>
-  <si>
-    <t>L45698</t>
-  </si>
-  <si>
     <t>COHP_47611</t>
   </si>
   <si>
     <t>L45699</t>
   </si>
   <si>
-    <t>\\isi-dcnl\user_data\ykuo\Seq\220415_IGC-LZ-20205</t>
+    <t>47584_XX_4534_T1</t>
+  </si>
+  <si>
+    <t>47585_XX_4534_T2</t>
+  </si>
+  <si>
+    <t>47572_XX_4501-BM</t>
+  </si>
+  <si>
+    <t>47573_XX_4506-BM</t>
+  </si>
+  <si>
+    <t>47574_XX_4510-BM</t>
+  </si>
+  <si>
+    <t>47575_XX_4510-W0</t>
+  </si>
+  <si>
+    <t>47576_XX_4510-W2</t>
+  </si>
+  <si>
+    <t>47577_XX_4510-W3</t>
+  </si>
+  <si>
+    <t>47578_XX_4510-W4</t>
+  </si>
+  <si>
+    <t>47579_XX_4510-W5</t>
+  </si>
+  <si>
+    <t>47580_XX_4510-W6</t>
+  </si>
+  <si>
+    <t>47581_XX_4510-W7</t>
+  </si>
+  <si>
+    <t>47582_XX_4510-W8</t>
+  </si>
+  <si>
+    <t>47583_XX_4510-W9</t>
+  </si>
+  <si>
+    <t>47589_XX_4534-W0</t>
+  </si>
+  <si>
+    <t>47590_XX_4534-W2</t>
+  </si>
+  <si>
+    <t>47591_XX_4534-W3</t>
+  </si>
+  <si>
+    <t>47592_XX_4534-W4</t>
+  </si>
+  <si>
+    <t>47593_XX_4534-W5</t>
+  </si>
+  <si>
+    <t>47594_XX_4534-W6</t>
+  </si>
+  <si>
+    <t>47595_XX_4534-W7</t>
+  </si>
+  <si>
+    <t>47586_XX_4534-T3</t>
+  </si>
+  <si>
+    <t>47587_XX_4534-T4</t>
+  </si>
+  <si>
+    <t>47588_XX_4534-T5</t>
   </si>
 </sst>
 </file>
@@ -746,30 +746,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1060,30 +1054,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="A19" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="30.1640625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="21.5" style="8" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="8" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" style="8" customWidth="1"/>
-    <col min="14" max="14" width="66.83203125" style="8" customWidth="1"/>
-    <col min="15" max="16384" width="9.1640625" style="8"/>
+    <col min="1" max="1" width="16.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="30.1640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="66.83203125" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1127,39 +1121,39 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>49</v>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L2" s="3">
         <v>4014</v>
@@ -1167,43 +1161,43 @@
       <c r="M2" s="6">
         <v>52.590952000000001</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>51</v>
+      <c r="N2" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L3" s="3">
         <v>4014</v>
@@ -1211,43 +1205,43 @@
       <c r="M3" s="6">
         <v>63.598638000000001</v>
       </c>
-      <c r="N3" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>53</v>
+      <c r="N3" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L4" s="3">
         <v>4014</v>
@@ -1255,43 +1249,43 @@
       <c r="M4" s="6">
         <v>66.965929000000003</v>
       </c>
-      <c r="N4" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>55</v>
+      <c r="N4" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L5" s="3">
         <v>4014</v>
@@ -1299,43 +1293,43 @@
       <c r="M5" s="6">
         <v>66.196629000000001</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>57</v>
+      <c r="N5" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L6" s="3">
         <v>4014</v>
@@ -1343,43 +1337,43 @@
       <c r="M6" s="6">
         <v>69.830698999999996</v>
       </c>
-      <c r="N6" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>59</v>
+      <c r="N6" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L7" s="3">
         <v>4014</v>
@@ -1387,43 +1381,43 @@
       <c r="M7" s="6">
         <v>74.429193999999995</v>
       </c>
-      <c r="N7" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>61</v>
+      <c r="N7" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L8" s="3">
         <v>4014</v>
@@ -1431,43 +1425,43 @@
       <c r="M8" s="6">
         <v>59.317146999999999</v>
       </c>
-      <c r="N8" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>63</v>
+      <c r="N8" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L9" s="3">
         <v>4014</v>
@@ -1475,43 +1469,43 @@
       <c r="M9" s="6">
         <v>56.271298999999999</v>
       </c>
-      <c r="N9" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>65</v>
+      <c r="N9" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L10" s="3">
         <v>4014</v>
@@ -1519,43 +1513,43 @@
       <c r="M10" s="6">
         <v>57.976227000000002</v>
       </c>
-      <c r="N10" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>67</v>
+      <c r="N10" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L11" s="3">
         <v>4014</v>
@@ -1563,43 +1557,43 @@
       <c r="M11" s="6">
         <v>66.025773999999998</v>
       </c>
-      <c r="N11" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>69</v>
+      <c r="N11" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L12" s="3">
         <v>4014</v>
@@ -1607,43 +1601,43 @@
       <c r="M12" s="6">
         <v>63.991069000000003</v>
       </c>
-      <c r="N12" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>71</v>
+      <c r="N12" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L13" s="3">
         <v>4014</v>
@@ -1651,43 +1645,43 @@
       <c r="M13" s="6">
         <v>60.624018999999997</v>
       </c>
-      <c r="N13" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>73</v>
+      <c r="N13" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L14" s="3">
         <v>4014</v>
@@ -1695,43 +1689,43 @@
       <c r="M14" s="6">
         <v>67.914276999999998</v>
       </c>
-      <c r="N14" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>75</v>
+      <c r="N14" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L15" s="3">
         <v>4014</v>
@@ -1739,43 +1733,43 @@
       <c r="M15" s="6">
         <v>64.149275000000003</v>
       </c>
-      <c r="N15" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>77</v>
+      <c r="N15" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L16" s="3">
         <v>4014</v>
@@ -1783,43 +1777,43 @@
       <c r="M16" s="6">
         <v>65.428017999999994</v>
       </c>
-      <c r="N16" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>79</v>
+      <c r="N16" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L17" s="3">
         <v>4014</v>
@@ -1827,43 +1821,43 @@
       <c r="M17" s="6">
         <v>73.173379999999995</v>
       </c>
-      <c r="N17" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>81</v>
+      <c r="N17" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L18" s="3">
         <v>4014</v>
@@ -1871,43 +1865,43 @@
       <c r="M18" s="6">
         <v>57.884118999999998</v>
       </c>
-      <c r="N18" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>83</v>
+      <c r="N18" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L19" s="3">
         <v>4014</v>
@@ -1915,43 +1909,43 @@
       <c r="M19" s="6">
         <v>60.369292999999999</v>
       </c>
-      <c r="N19" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>85</v>
+      <c r="N19" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L20" s="3">
         <v>4014</v>
@@ -1959,43 +1953,43 @@
       <c r="M20" s="6">
         <v>52.466307999999998</v>
       </c>
-      <c r="N20" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>87</v>
+      <c r="N20" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L21" s="3">
         <v>4014</v>
@@ -2003,43 +1997,43 @@
       <c r="M21" s="6">
         <v>70.940956999999997</v>
       </c>
-      <c r="N21" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>89</v>
+      <c r="N21" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L22" s="3">
         <v>4014</v>
@@ -2047,43 +2041,43 @@
       <c r="M22" s="6">
         <v>61.164439999999999</v>
       </c>
-      <c r="N22" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>91</v>
+      <c r="N22" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L23" s="3">
         <v>4014</v>
@@ -2091,43 +2085,43 @@
       <c r="M23" s="6">
         <v>51.434469</v>
       </c>
-      <c r="N23" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>93</v>
+      <c r="N23" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L24" s="3">
         <v>4014</v>
@@ -2135,43 +2129,43 @@
       <c r="M24" s="6">
         <v>53.017465999999999</v>
       </c>
-      <c r="N24" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="N24" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L25" s="3">
         <v>4014</v>
@@ -2179,43 +2173,43 @@
       <c r="M25" s="6">
         <v>42.747461999999999</v>
       </c>
-      <c r="N25" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="N25" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L26" s="3">
         <v>4014</v>
@@ -2223,43 +2217,43 @@
       <c r="M26" s="6">
         <v>63.885800000000003</v>
       </c>
-      <c r="N26" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="N26" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>99</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L27" s="3">
         <v>4014</v>
@@ -2267,43 +2261,43 @@
       <c r="M27" s="6">
         <v>65.503652000000002</v>
       </c>
-      <c r="N27" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N27" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L28" s="3">
         <v>4014</v>
@@ -2311,43 +2305,43 @@
       <c r="M28" s="6">
         <v>66.639239000000003</v>
       </c>
-      <c r="N28" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N28" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>141</v>
+      <c r="C29" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L29" s="3">
         <v>4014</v>
@@ -2355,43 +2349,43 @@
       <c r="M29" s="6">
         <v>61.364054000000003</v>
       </c>
-      <c r="N29" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N29" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>143</v>
+        <v>197</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L30" s="3">
         <v>4014</v>
@@ -2399,43 +2393,43 @@
       <c r="M30" s="6">
         <v>55.597454999999997</v>
       </c>
-      <c r="N30" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N30" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>145</v>
+        <v>198</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L31" s="3">
         <v>4014</v>
@@ -2443,43 +2437,43 @@
       <c r="M31" s="6">
         <v>57.580101999999997</v>
       </c>
-      <c r="N31" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>147</v>
+      <c r="N31" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L32" s="3">
         <v>4014</v>
@@ -2487,43 +2481,43 @@
       <c r="M32" s="6">
         <v>68.707722000000004</v>
       </c>
-      <c r="N32" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>149</v>
+      <c r="N32" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L33" s="3">
         <v>4014</v>
@@ -2531,43 +2525,43 @@
       <c r="M33" s="6">
         <v>59.911563999999998</v>
       </c>
-      <c r="N33" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>151</v>
+      <c r="N33" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L34" s="3">
         <v>4014</v>
@@ -2575,43 +2569,43 @@
       <c r="M34" s="6">
         <v>58.065705000000001</v>
       </c>
-      <c r="N34" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>153</v>
+      <c r="N34" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L35" s="3">
         <v>4014</v>
@@ -2619,43 +2613,43 @@
       <c r="M35" s="6">
         <v>59.630569999999999</v>
       </c>
-      <c r="N35" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>155</v>
+      <c r="N35" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L36" s="3">
         <v>4014</v>
@@ -2663,43 +2657,43 @@
       <c r="M36" s="6">
         <v>62.441769000000001</v>
       </c>
-      <c r="N36" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>157</v>
+      <c r="N36" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L37" s="3">
         <v>4014</v>
@@ -2707,43 +2701,43 @@
       <c r="M37" s="6">
         <v>58.646479999999997</v>
       </c>
-      <c r="N37" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>159</v>
+      <c r="N37" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L38" s="3">
         <v>4014</v>
@@ -2751,43 +2745,43 @@
       <c r="M38" s="6">
         <v>58.091656</v>
       </c>
-      <c r="N38" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>161</v>
+      <c r="N38" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L39" s="3">
         <v>4014</v>
@@ -2795,43 +2789,43 @@
       <c r="M39" s="6">
         <v>70.641915999999995</v>
       </c>
-      <c r="N39" s="10" t="s">
-        <v>214</v>
+      <c r="N39" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>163</v>
+      <c r="A40" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L40" s="3">
         <v>4014</v>
@@ -2839,43 +2833,43 @@
       <c r="M40" s="6">
         <v>61.337189000000002</v>
       </c>
-      <c r="N40" s="10" t="s">
-        <v>214</v>
+      <c r="N40" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>165</v>
+      <c r="A41" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L41" s="3">
         <v>4014</v>
@@ -2883,43 +2877,43 @@
       <c r="M41" s="6">
         <v>49.743155999999999</v>
       </c>
-      <c r="N41" s="10" t="s">
+      <c r="N41" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>167</v>
+      <c r="B42" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L42" s="3">
         <v>4014</v>
@@ -2927,43 +2921,43 @@
       <c r="M42" s="6">
         <v>65.457769999999996</v>
       </c>
-      <c r="N42" s="10" t="s">
-        <v>214</v>
+      <c r="N42" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>169</v>
+      <c r="A43" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L43" s="3">
         <v>4014</v>
@@ -2971,43 +2965,43 @@
       <c r="M43" s="6">
         <v>67.418288000000004</v>
       </c>
-      <c r="N43" s="10" t="s">
-        <v>214</v>
+      <c r="N43" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>171</v>
+      <c r="A44" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L44" s="3">
         <v>4014</v>
@@ -3015,43 +3009,43 @@
       <c r="M44" s="6">
         <v>64.843928000000005</v>
       </c>
-      <c r="N44" s="10" t="s">
-        <v>214</v>
+      <c r="N44" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>173</v>
+      <c r="A45" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L45" s="3">
         <v>4014</v>
@@ -3059,43 +3053,43 @@
       <c r="M45" s="6">
         <v>51.057634999999998</v>
       </c>
-      <c r="N45" s="10" t="s">
-        <v>214</v>
+      <c r="N45" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>175</v>
+      <c r="A46" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L46" s="3">
         <v>4014</v>
@@ -3103,43 +3097,43 @@
       <c r="M46" s="6">
         <v>66.406706</v>
       </c>
-      <c r="N46" s="10" t="s">
-        <v>214</v>
+      <c r="N46" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>177</v>
+      <c r="A47" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L47" s="3">
         <v>4014</v>
@@ -3147,43 +3141,43 @@
       <c r="M47" s="6">
         <v>72.313356999999996</v>
       </c>
-      <c r="N47" s="10" t="s">
-        <v>214</v>
+      <c r="N47" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>179</v>
+      <c r="A48" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L48" s="3">
         <v>4014</v>
@@ -3191,43 +3185,43 @@
       <c r="M48" s="6">
         <v>68.059235000000001</v>
       </c>
-      <c r="N48" s="10" t="s">
-        <v>214</v>
+      <c r="N48" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>181</v>
+      <c r="A49" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L49" s="3">
         <v>4014</v>
@@ -3235,43 +3229,43 @@
       <c r="M49" s="6">
         <v>56.045082999999998</v>
       </c>
-      <c r="N49" s="10" t="s">
-        <v>214</v>
+      <c r="N49" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>183</v>
+      <c r="A50" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L50" s="3">
         <v>4014</v>
@@ -3279,43 +3273,43 @@
       <c r="M50" s="6">
         <v>54.796737999999998</v>
       </c>
-      <c r="N50" s="10" t="s">
-        <v>214</v>
+      <c r="N50" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>185</v>
+      <c r="A51" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L51" s="3">
         <v>4014</v>
@@ -3323,43 +3317,43 @@
       <c r="M51" s="6">
         <v>56.707417</v>
       </c>
-      <c r="N51" s="10" t="s">
-        <v>214</v>
+      <c r="N51" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>187</v>
+      <c r="A52" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L52" s="3">
         <v>4014</v>
@@ -3367,43 +3361,43 @@
       <c r="M52" s="6">
         <v>59.123973999999997</v>
       </c>
-      <c r="N52" s="10" t="s">
-        <v>214</v>
+      <c r="N52" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>189</v>
+      <c r="A53" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L53" s="3">
         <v>4014</v>
@@ -3411,43 +3405,43 @@
       <c r="M53" s="6">
         <v>67.492661999999996</v>
       </c>
-      <c r="N53" s="10" t="s">
-        <v>214</v>
+      <c r="N53" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>191</v>
+      <c r="A54" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L54" s="3">
         <v>4014</v>
@@ -3455,43 +3449,43 @@
       <c r="M54" s="6">
         <v>56.041085000000002</v>
       </c>
-      <c r="N54" s="10" t="s">
-        <v>214</v>
+      <c r="N54" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>193</v>
+      <c r="A55" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L55" s="3">
         <v>4014</v>
@@ -3499,43 +3493,43 @@
       <c r="M55" s="6">
         <v>58.756669000000002</v>
       </c>
-      <c r="N55" s="10" t="s">
-        <v>214</v>
+      <c r="N55" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>195</v>
+      <c r="A56" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L56" s="3">
         <v>4014</v>
@@ -3543,43 +3537,43 @@
       <c r="M56" s="6">
         <v>55.037439999999997</v>
       </c>
-      <c r="N56" s="10" t="s">
-        <v>214</v>
+      <c r="N56" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>197</v>
+      <c r="A57" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L57" s="3">
         <v>4014</v>
@@ -3587,43 +3581,43 @@
       <c r="M57" s="6">
         <v>64.296610999999999</v>
       </c>
-      <c r="N57" s="10" t="s">
-        <v>214</v>
+      <c r="N57" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>199</v>
+      <c r="A58" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L58" s="3">
         <v>4014</v>
@@ -3631,43 +3625,43 @@
       <c r="M58" s="6">
         <v>57.989783000000003</v>
       </c>
-      <c r="N58" s="10" t="s">
-        <v>214</v>
+      <c r="N58" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>201</v>
+      <c r="A59" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L59" s="3">
         <v>4014</v>
@@ -3675,43 +3669,43 @@
       <c r="M59" s="6">
         <v>64.395722000000006</v>
       </c>
-      <c r="N59" s="10" t="s">
-        <v>214</v>
+      <c r="N59" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>203</v>
+      <c r="A60" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L60" s="3">
         <v>4014</v>
@@ -3719,43 +3713,43 @@
       <c r="M60" s="6">
         <v>56.905270000000002</v>
       </c>
-      <c r="N60" s="10" t="s">
-        <v>214</v>
+      <c r="N60" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>205</v>
+      <c r="A61" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L61" s="3">
         <v>4014</v>
@@ -3763,43 +3757,43 @@
       <c r="M61" s="6">
         <v>55.032836000000003</v>
       </c>
-      <c r="N61" s="10" t="s">
-        <v>214</v>
+      <c r="N61" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>207</v>
+      <c r="A62" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L62" s="3">
         <v>4014</v>
@@ -3807,43 +3801,43 @@
       <c r="M62" s="6">
         <v>52.482776999999999</v>
       </c>
-      <c r="N62" s="10" t="s">
-        <v>214</v>
+      <c r="N62" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>209</v>
+      <c r="A63" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L63" s="3">
         <v>4014</v>
@@ -3851,43 +3845,43 @@
       <c r="M63" s="6">
         <v>61.617189000000003</v>
       </c>
-      <c r="N63" s="10" t="s">
-        <v>214</v>
+      <c r="N63" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>211</v>
+      <c r="A64" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L64" s="3">
         <v>4014</v>
@@ -3895,43 +3889,43 @@
       <c r="M64" s="6">
         <v>77.093395999999998</v>
       </c>
-      <c r="N64" s="10" t="s">
-        <v>214</v>
+      <c r="N64" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>213</v>
+      <c r="A65" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L65" s="3">
         <v>4014</v>
@@ -3939,157 +3933,81 @@
       <c r="M65" s="6">
         <v>69.973037000000005</v>
       </c>
-      <c r="N65" s="10" t="s">
-        <v>214</v>
+      <c r="N65" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
       <c r="M66" s="6"/>
     </row>
     <row r="67" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
       <c r="M67" s="6"/>
     </row>
     <row r="68" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="7"/>
+      <c r="M68" s="6"/>
     </row>
     <row r="69" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
       <c r="I69" s="5"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="7"/>
+      <c r="M69" s="6"/>
     </row>
     <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
       <c r="I70" s="5"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="7"/>
+      <c r="M70" s="6"/>
     </row>
     <row r="71" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
       <c r="I71" s="5"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="7"/>
+      <c r="M71" s="6"/>
     </row>
     <row r="72" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
       <c r="I72" s="5"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="7"/>
+      <c r="M72" s="6"/>
     </row>
     <row r="73" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
       <c r="I73" s="5"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="7"/>
+      <c r="M73" s="6"/>
     </row>
     <row r="74" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
       <c r="I74" s="5"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="7"/>
+      <c r="M74" s="6"/>
     </row>
     <row r="75" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="3"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
       <c r="I75" s="5"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="7"/>
+      <c r="M75" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M75">
@@ -4098,8 +4016,9 @@
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" xr:uid="{D0CFDAFB-8828-49A6-83E9-CE35D049655E}"/>
     <hyperlink ref="N3:N65" r:id="rId2" display="\\isi-dcnl\user_data\ykuo\Seq\220415_IGC-LZ-20205" xr:uid="{35054803-83B1-44A2-A2E1-26F23E48134B}"/>
+    <hyperlink ref="N30" r:id="rId3" xr:uid="{F6364A36-6718-47DD-B645-C9F2965F0AAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>